--- a/document/04_案件/UPG案スケジュール管理表.xlsx
+++ b/document/04_案件/UPG案スケジュール管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3F99A-A5D3-474C-A9C5-838B45F2D4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{10290DAB-A0BF-4544-A267-9E1C62249F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C7130B6-19DD-4A26-9073-491A4968643B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{5C7130B6-19DD-4A26-9073-491A4968643B}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PG実装担当割表!$A$2:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
   <si>
     <t>UP案決定</t>
   </si>
@@ -74,9 +66,6 @@
   </si>
   <si>
     <t>IT試験実施</t>
-  </si>
-  <si>
-    <t>IT完了</t>
   </si>
   <si>
     <t>スケジュール管理表作成（担当割り振り）</t>
@@ -537,6 +526,97 @@
   </si>
   <si>
     <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w01\common\W01CommonUtil.java</t>
+  </si>
+  <si>
+    <t>common\WISS1CommonUtil.java</t>
+  </si>
+  <si>
+    <t>W01ToolMenu.java</t>
+  </si>
+  <si>
+    <t>W01ConvertFileCsvToTsv.java</t>
+  </si>
+  <si>
+    <t>W01ConvertFileSelect.java</t>
+  </si>
+  <si>
+    <t>W01ConvertFileTsvToCsv.java</t>
+  </si>
+  <si>
+    <t>W01SelectTableData.java</t>
+  </si>
+  <si>
+    <t>W01SelectTableHeader.java</t>
+  </si>
+  <si>
+    <t>W01ShapeEvidence.java</t>
+  </si>
+  <si>
+    <t>西川</t>
+    <rPh sb="0" eb="2">
+      <t>ニシカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西尾</t>
+    <rPh sb="0" eb="2">
+      <t>ニシオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT完了</t>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当クラス</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西川,宮田</t>
+    <rPh sb="0" eb="2">
+      <t>ニシカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミヤタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -569,7 +649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +683,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,9 +758,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -701,43 +784,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,167 +1136,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439AF5AC-3CCA-4305-98EC-07EE3FCB5EF0}">
-  <dimension ref="A2:AH14"/>
+  <dimension ref="A2:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="48.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>3</v>
@@ -1249,21 +1340,27 @@
       <c r="AB3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="2"/>
+      <c r="AC3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="AD3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="C4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>87</v>
+        <v>11</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>1</v>
@@ -1298,7 +1395,7 @@
       <c r="X4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Y4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AB4" s="2" t="s">
@@ -1308,9 +1405,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>6</v>
@@ -1328,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3"/>
       <c r="S6" s="2" t="s">
         <v>7</v>
@@ -1340,15 +1437,94 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="R10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="R11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="R12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="R13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3"/>
+      <c r="R14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="R15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="R16" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="18:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="R17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="18:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="R18" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="18:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="R19" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1360,356 +1536,368 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="16">
+        <v>44151</v>
+      </c>
+      <c r="G2" s="16">
+        <v>44151</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="16">
+        <v>44152</v>
+      </c>
+      <c r="G3" s="16">
+        <v>44152</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18">
-        <v>44151</v>
-      </c>
-      <c r="G2" s="18">
-        <v>44151</v>
-      </c>
-      <c r="H2" s="16" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="16">
         <v>44152</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G4" s="16">
+        <v>44153</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="16">
         <v>44152</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="G5" s="16">
+        <v>44162</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="16">
+        <v>44165</v>
+      </c>
+      <c r="G6" s="16">
+        <v>44168</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="16">
+        <v>44165</v>
+      </c>
+      <c r="G7" s="16">
+        <v>44168</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="16">
+        <v>44169</v>
+      </c>
+      <c r="G8" s="16">
+        <v>44172</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="16">
+        <v>44169</v>
+      </c>
+      <c r="G9" s="16">
+        <v>44169</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16">
+        <v>44172</v>
+      </c>
+      <c r="G10" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="16">
+        <v>44175</v>
+      </c>
+      <c r="G11" s="16">
+        <v>44179</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="16">
+        <v>44175</v>
+      </c>
+      <c r="G12" s="16">
+        <v>44179</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="16">
+        <v>44175</v>
+      </c>
+      <c r="G13" s="16">
+        <v>44179</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="16">
+        <v>44179</v>
+      </c>
+      <c r="G14" s="16">
+        <v>44181</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="16">
+        <v>44181</v>
+      </c>
+      <c r="G15" s="16">
+        <v>44183</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="16">
+        <v>44183</v>
+      </c>
+      <c r="G16" s="16">
+        <v>44186</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="16">
+        <v>44186</v>
+      </c>
+      <c r="G17" s="16">
+        <v>44188</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="16">
+        <v>44188</v>
+      </c>
+      <c r="G18" s="16">
+        <v>44189</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18">
-        <v>44152</v>
-      </c>
-      <c r="G4" s="18">
-        <v>44153</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18">
-        <v>44152</v>
-      </c>
-      <c r="G5" s="18">
-        <v>44162</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18">
-        <v>44165</v>
-      </c>
-      <c r="G6" s="18">
-        <v>44168</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18">
-        <v>44165</v>
-      </c>
-      <c r="G7" s="18">
-        <v>44168</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18">
-        <v>44169</v>
-      </c>
-      <c r="G8" s="18">
-        <v>44172</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18">
-        <v>44169</v>
-      </c>
-      <c r="G9" s="18">
-        <v>44169</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18">
-        <v>44172</v>
-      </c>
-      <c r="G10" s="18">
-        <v>44175</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18">
-        <v>44175</v>
-      </c>
-      <c r="G11" s="18">
-        <v>44179</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18">
-        <v>44175</v>
-      </c>
-      <c r="G12" s="18">
-        <v>44179</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18">
-        <v>44175</v>
-      </c>
-      <c r="G13" s="18">
-        <v>44179</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18">
-        <v>44179</v>
-      </c>
-      <c r="G14" s="18">
-        <v>44181</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18">
-        <v>44181</v>
-      </c>
-      <c r="G15" s="18">
-        <v>44183</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18">
-        <v>44183</v>
-      </c>
-      <c r="G16" s="18">
-        <v>44186</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18">
-        <v>44186</v>
-      </c>
-      <c r="G17" s="18">
-        <v>44188</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18">
-        <v>44188</v>
-      </c>
-      <c r="G18" s="18">
-        <v>44189</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="16">
         <v>44190</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
-        <v>96</v>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
@@ -1717,18 +1905,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:H19">
@@ -1751,640 +1927,648 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.375" customWidth="1"/>
-    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+    <col min="8" max="9" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B3" s="23">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="9">
+        <v>44151</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="9">
         <v>44151</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I4" s="9">
         <v>44151</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="10">
-        <v>44151</v>
-      </c>
-      <c r="I4" s="10">
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9">
+        <v>44155</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="10">
-        <v>44155</v>
-      </c>
-      <c r="I5" s="10">
-        <v>44159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="B6" s="23">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="9">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="11">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="9">
-        <v>4</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="B11" s="23">
         <f>B6+1</f>
         <v>3</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="9">
+        <v>44158</v>
+      </c>
+      <c r="I11" s="9">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="9">
+        <v>44158</v>
+      </c>
+      <c r="I12" s="9">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="9">
+        <v>44159</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="10">
-        <v>44158</v>
-      </c>
-      <c r="I11" s="10">
-        <v>44159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="9">
-        <v>3</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="10">
-        <v>44158</v>
-      </c>
-      <c r="I12" s="10">
-        <v>44159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="10">
-        <v>44159</v>
-      </c>
-      <c r="I13" s="10">
-        <v>44160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <f>B11+1</f>
         <v>4</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>10</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="G14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="9">
         <v>44152</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>44155</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8">
         <f t="shared" ref="B15:B16" si="0">B14+1</f>
         <v>5</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="9">
+      <c r="E15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="8">
         <v>10</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="G15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="9">
         <v>44160</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>44161</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="9">
+        <v>44153</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="9">
+        <v>44153</v>
+      </c>
+      <c r="I17" s="9">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="10">
-        <v>44153</v>
-      </c>
-      <c r="I16" s="10">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="10">
-        <v>44153</v>
-      </c>
-      <c r="I17" s="10">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="B18" s="23">
         <f>B16+1</f>
         <v>7</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="9">
+        <v>44151</v>
+      </c>
+      <c r="I18" s="9">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="9">
+      <c r="H19" s="9">
+        <v>44151</v>
+      </c>
+      <c r="I19" s="9">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="9">
+        <v>44151</v>
+      </c>
+      <c r="I20" s="9">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="9">
+        <v>44151</v>
+      </c>
+      <c r="I21" s="9">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="9">
+        <v>44152</v>
+      </c>
+      <c r="I22" s="9">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="9">
+        <v>44152</v>
+      </c>
+      <c r="I23" s="9">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="8">
+        <v>8</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="9">
+        <v>44153</v>
+      </c>
+      <c r="I24" s="9">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="G25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="9">
         <v>44151</v>
       </c>
-      <c r="I18" s="10">
-        <v>44153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="I25" s="9">
         <v>44151</v>
       </c>
-      <c r="I19" s="10">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="10">
-        <v>44151</v>
-      </c>
-      <c r="I20" s="10">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="9">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="10">
-        <v>44151</v>
-      </c>
-      <c r="I21" s="10">
-        <v>44153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="9">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="10">
-        <v>44152</v>
-      </c>
-      <c r="I22" s="10">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="9">
-        <v>3</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="10">
-        <v>44152</v>
-      </c>
-      <c r="I23" s="10">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="9">
-        <v>8</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="10">
-        <v>44153</v>
-      </c>
-      <c r="I24" s="10">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="10">
-        <v>44151</v>
-      </c>
-      <c r="I25" s="10">
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="8">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:G25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="20">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
@@ -2397,14 +2581,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
